--- a/qtdemo/logwork.xlsx
+++ b/qtdemo/logwork.xlsx
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
@@ -1146,6 +1146,56 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-10-06 01:06:54</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2019-10-06 01:06:54</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pcoip</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>pcoip</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-10-06 01:09:03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2019-10-06 01:09:04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
